--- a/biology/Botanique/Cryptosepalum_korupense/Cryptosepalum_korupense.xlsx
+++ b/biology/Botanique/Cryptosepalum_korupense/Cryptosepalum_korupense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptosepalum korupense Burgt est une espèce de plantes de la famille des Caesalpiniaceae, du genre Cryptosepalum. Suivant APGIII, elle appartient à la famille des Fabaceae[1].
-C’est un arbre d’environ 40 - 44 m de haut, le tronc pouvant avoir 80 cm de diamètre. C’est une espèce endémique à la région du sud-ouest Cameroun[2]. On la rencontre en général dans les prairies[1]. Suivant les critères de l’IUCN, elle est évaluée comme une espèce en danger[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptosepalum korupense Burgt est une espèce de plantes de la famille des Caesalpiniaceae, du genre Cryptosepalum. Suivant APGIII, elle appartient à la famille des Fabaceae.
+C’est un arbre d’environ 40 - 44 m de haut, le tronc pouvant avoir 80 cm de diamètre. C’est une espèce endémique à la région du sud-ouest Cameroun. On la rencontre en général dans les prairies. Suivant les critères de l’IUCN, elle est évaluée comme une espèce en danger.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique korupense fait référence au parc national de Korup où elle a été observée.
 </t>
